--- a/checklistGenerator/xlsx/Burduf.xlsx
+++ b/checklistGenerator/xlsx/Burduf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t xml:space="preserve">În concordanță cu Contractul de service și mentenanță nr.: .....</t>
   </si>
@@ -148,28 +148,10 @@
     <t xml:space="preserve">Prelata frontală și laterală de pe partea dreaptă</t>
   </si>
   <si>
-    <t xml:space="preserve">Perne etanșare burduf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amortizor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcționare ventilator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubulatură aer</t>
-  </si>
-  <si>
     <t xml:space="preserve">După verificarea conform “Liniilor directoare pentru ferestre, uși și porți acționate electric“, par. 6.1 pozițiile care sunt semnalate trebuie remediate imediat sau înlocuite</t>
   </si>
   <si>
     <t xml:space="preserve">□</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produsul corespunde d.p.d.v al “Liniilor directoare pentru ferestre, uși și porți acționate electric”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produsul nu corespunde d.p.d.v al “Liniilor directoare pentru ferestre, uși și porți acționate electric”</t>
   </si>
   <si>
     <t xml:space="preserve">Au fost determinate serioase lipsuri care nu permit folosirea și funționarea ușii în continuare</t>
@@ -194,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -233,6 +215,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -289,108 +277,116 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,9 +413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>144720</xdr:colOff>
+      <xdr:colOff>143640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -433,7 +429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6496200" y="0"/>
-          <a:ext cx="2854080" cy="1253520"/>
+          <a:ext cx="2853000" cy="1252440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,8 +625,8 @@
   </sheetPr>
   <dimension ref="B1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -677,7 +673,6 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
@@ -729,688 +724,655 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="9" t="n">
+      <c r="D14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
+      <c r="D15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="14"/>
+      <c r="D16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="14"/>
+      <c r="D17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="14"/>
+      <c r="D18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="14"/>
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="9" t="n">
+      <c r="D20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="19" t="n">
+      <c r="D21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="21"/>
+      <c r="D22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="9" t="n">
+      <c r="D23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="14"/>
+      <c r="D24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="14"/>
+      <c r="D25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="9" t="n">
+      <c r="D26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="14"/>
+      <c r="D27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="14"/>
+      <c r="D28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="n">
+      <c r="D29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="14"/>
+      <c r="D30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="19" t="n">
+      <c r="D31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="18" t="n">
         <v>19</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9" t="n">
+      <c r="D32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="n">
+      <c r="D33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="14"/>
+      <c r="D34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="14"/>
+      <c r="D35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="9" t="n">
+      <c r="D36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="14"/>
+      <c r="D37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="D38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="n">
+      <c r="D39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="9" t="n">
+      <c r="D40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9" t="n">
+      <c r="D41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="14"/>
+      <c r="D42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="14"/>
+      <c r="D43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" customFormat="false" ht="18.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="22" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="23" t="s">
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="26"/>
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="26"/>
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="36">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="F13:H13"/>
@@ -1445,14 +1407,8 @@
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B45:I45"/>
     <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" display="www.da-te.ro"/>

--- a/checklistGenerator/xlsx/Burduf.xlsx
+++ b/checklistGenerator/xlsx/Burduf.xlsx
@@ -167,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -206,6 +206,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -383,7 +390,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -410,9 +417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>622080</xdr:colOff>
+      <xdr:colOff>621720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -426,7 +433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6186240" y="0"/>
-          <a:ext cx="2850840" cy="1250280"/>
+          <a:ext cx="2850480" cy="1249920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,8 +562,8 @@
   </sheetPr>
   <dimension ref="B1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
